--- a/biology/Zoologie/Hyles_perkinsi/Hyles_perkinsi.xlsx
+++ b/biology/Zoologie/Hyles_perkinsi/Hyles_perkinsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyles perkinsi est une espèce de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des  Macroglossinae, de la tribu des Macroglossini, et du genre Hyles.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est endémique de Oahu, et Molokai dans les îles Hawaï.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La face dorsale de l'aile antérieure est gris brun, avec un entourage blanc. La face dorsale de l'aile postérieure est rose avec de larges bordures noires et l'abdomen est bagué de blanc.</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur les espèces des genres Euphorbia, Kadua et Straussia.
 </t>
@@ -603,15 +621,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hylies perkinsi a été décrite par l'entomologiste américain Otto Herman Swezey en 1920[1].
-Synonymie
-Celerio perkinsi Swezey, 1920 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylies perkinsi a été décrite par l'entomologiste américain Otto Herman Swezey en 1920.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyles_perkinsi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles_perkinsi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Celerio perkinsi Swezey, 1920 Protonyme
 Hawaiina perkinsi
-Hyles wilsoni perkinsi
-Taxonomie
-Kitching et Cadiou l'ont élevée au rang d'espèce. Elle était autrefois considérée comme une sous-espèce de Hyles wilsoni.
+Hyles wilsoni perkinsi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyles_perkinsi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles_perkinsi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kitching et Cadiou l'ont élevée au rang d'espèce. Elle était autrefois considérée comme une sous-espèce de Hyles wilsoni.
 </t>
         </is>
       </c>
